--- a/experiments/ana-flavia-NCxNR-trim/sheets/absolute-filtered_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxNR-trim/sheets/absolute-filtered_frequencies.xlsx
@@ -31,31 +31,31 @@
     <t>NR</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -154,12 +154,12 @@
     <t>Clostridia_UCG-014</t>
   </si>
   <si>
+    <t>Rhodospirillales</t>
+  </si>
+  <si>
     <t>Enterobacterales</t>
   </si>
   <si>
-    <t>Rhodospirillales</t>
-  </si>
-  <si>
     <t>Monoglobales</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Acholeplasmataceae</t>
   </si>
   <si>
+    <t>Staphylococcaceae</t>
+  </si>
+  <si>
     <t>Burkholderiaceae</t>
   </si>
   <si>
-    <t>Staphylococcaceae</t>
-  </si>
-  <si>
     <t>Eggerthellaceae</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>Pseudomonadaceae</t>
   </si>
   <si>
+    <t>Defluviitaleaceae</t>
+  </si>
+  <si>
     <t>Aerococcaceae</t>
   </si>
   <si>
-    <t>Defluviitaleaceae</t>
-  </si>
-  <si>
     <t>Morganellaceae</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>[Clostridium]_methylpentosum_group</t>
   </si>
   <si>
+    <t>Mitochondria</t>
+  </si>
+  <si>
     <t>Helicobacteraceae</t>
   </si>
   <si>
-    <t>Mitochondria</t>
-  </si>
-  <si>
     <t>Caulobacteraceae</t>
   </si>
   <si>
@@ -430,15 +430,15 @@
     <t>Oscillibacter</t>
   </si>
   <si>
+    <t>Colidextribacter</t>
+  </si>
+  <si>
+    <t>Lachnoclostridium</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Colidextribacter</t>
-  </si>
-  <si>
-    <t>Lachnoclostridium</t>
-  </si>
-  <si>
     <t>Streptococcus</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>Candidatus_Saccharimonas</t>
   </si>
   <si>
+    <t>Coriobacteriaceae_UCG-002</t>
+  </si>
+  <si>
     <t>GCA-900066575</t>
   </si>
   <si>
-    <t>Coriobacteriaceae_UCG-002</t>
-  </si>
-  <si>
     <t>Butyricicoccus</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>UCG-004</t>
   </si>
   <si>
+    <t>[Eubacterium]_siraeum_group</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
-    <t>[Eubacterium]_siraeum_group</t>
-  </si>
-  <si>
     <t>Papillibacter</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>Staphylococcus</t>
   </si>
   <si>
+    <t>Fournierella</t>
+  </si>
+  <si>
     <t>Mucispirillum</t>
   </si>
   <si>
-    <t>Fournierella</t>
-  </si>
-  <si>
     <t>Anaerovorax</t>
   </si>
   <si>
@@ -541,27 +541,27 @@
     <t>Holdemania</t>
   </si>
   <si>
+    <t>Pseudomonas</t>
+  </si>
+  <si>
     <t>Anaerostipes</t>
   </si>
   <si>
-    <t>Pseudomonas</t>
-  </si>
-  <si>
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>Defluviitaleaceae_UCG-011</t>
+  </si>
+  <si>
     <t>Aerococcus</t>
   </si>
   <si>
-    <t>Defluviitaleaceae_UCG-011</t>
+    <t>Faecalibaculum</t>
   </si>
   <si>
     <t>Jeotgalicoccus</t>
   </si>
   <si>
-    <t>Faecalibaculum</t>
-  </si>
-  <si>
     <t>UCG-009</t>
   </si>
   <si>
@@ -616,18 +616,18 @@
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>[Eubacterium]_ventriosum_group</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_NC2004_group</t>
   </si>
   <si>
-    <t>[Eubacterium]_ventriosum_group</t>
+    <t>UBA1819</t>
   </si>
   <si>
     <t>UCG-007</t>
   </si>
   <si>
-    <t>UBA1819</t>
-  </si>
-  <si>
     <t>Haemophilus</t>
   </si>
   <si>
@@ -652,13 +652,13 @@
     <t>DTU089</t>
   </si>
   <si>
+    <t>Helicobacter</t>
+  </si>
+  <si>
+    <t>Candidatus_Soleaferrea</t>
+  </si>
+  <si>
     <t>Dorea</t>
-  </si>
-  <si>
-    <t>Helicobacter</t>
-  </si>
-  <si>
-    <t>Candidatus_Soleaferrea</t>
   </si>
   <si>
     <t>Tuzzerella</t>
@@ -1152,40 +1152,40 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2290266</v>
+        <v>2214838</v>
       </c>
       <c r="C2">
-        <v>1401168</v>
+        <v>1355413</v>
       </c>
       <c r="D2">
-        <v>889098</v>
+        <v>859425</v>
       </c>
       <c r="E2">
-        <v>268271</v>
+        <v>259343</v>
       </c>
       <c r="F2">
-        <v>412025</v>
+        <v>398060</v>
       </c>
       <c r="G2">
-        <v>240303</v>
+        <v>232354</v>
       </c>
       <c r="H2">
-        <v>480569</v>
+        <v>465656</v>
       </c>
       <c r="I2">
-        <v>242772</v>
+        <v>234838</v>
       </c>
       <c r="J2">
-        <v>69986</v>
+        <v>67500</v>
       </c>
       <c r="K2">
-        <v>234756</v>
+        <v>227035</v>
       </c>
       <c r="L2">
-        <v>188913</v>
+        <v>182333</v>
       </c>
       <c r="M2">
-        <v>152671</v>
+        <v>147719</v>
       </c>
     </row>
   </sheetData>
@@ -1244,40 +1244,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1801959</v>
+        <v>1743461</v>
       </c>
       <c r="C2">
-        <v>1101155</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
-        <v>700804</v>
+        <v>677550</v>
       </c>
       <c r="E2">
-        <v>175747</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>318405</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>188558</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>418445</v>
+        <v>405492</v>
       </c>
       <c r="I2">
-        <v>195833</v>
+        <v>189504</v>
       </c>
       <c r="J2">
-        <v>55254</v>
+        <v>53330</v>
       </c>
       <c r="K2">
-        <v>201397</v>
+        <v>194736</v>
       </c>
       <c r="L2">
-        <v>113237</v>
+        <v>109232</v>
       </c>
       <c r="M2">
-        <v>135083</v>
+        <v>130748</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>366064</v>
+        <v>353117</v>
       </c>
       <c r="C3">
-        <v>219368</v>
+        <v>211387</v>
       </c>
       <c r="D3">
-        <v>146696</v>
+        <v>141730</v>
       </c>
       <c r="E3">
-        <v>83411</v>
+        <v>80284</v>
       </c>
       <c r="F3">
-        <v>75082</v>
+        <v>72139</v>
       </c>
       <c r="G3">
-        <v>12377</v>
+        <v>11949</v>
       </c>
       <c r="H3">
-        <v>48498</v>
+        <v>47015</v>
       </c>
       <c r="I3">
-        <v>10518</v>
+        <v>10150</v>
       </c>
       <c r="J3">
-        <v>14418</v>
+        <v>13870</v>
       </c>
       <c r="K3">
-        <v>32231</v>
+        <v>31215</v>
       </c>
       <c r="L3">
-        <v>72836</v>
+        <v>70390</v>
       </c>
       <c r="M3">
-        <v>16693</v>
+        <v>16105</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1326,28 +1326,28 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>80426</v>
+        <v>77918</v>
       </c>
       <c r="C4">
-        <v>47410</v>
+        <v>45955</v>
       </c>
       <c r="D4">
-        <v>33016</v>
+        <v>31963</v>
       </c>
       <c r="E4">
-        <v>8033</v>
+        <v>7782</v>
       </c>
       <c r="F4">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="G4">
-        <v>36445</v>
+        <v>35350</v>
       </c>
       <c r="H4">
-        <v>1503</v>
+        <v>1449</v>
       </c>
       <c r="I4">
-        <v>32958</v>
+        <v>31908</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -1367,40 +1367,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>35242</v>
+        <v>33999</v>
       </c>
       <c r="C5">
-        <v>29249</v>
+        <v>28286</v>
       </c>
       <c r="D5">
-        <v>5993</v>
+        <v>5713</v>
       </c>
       <c r="E5">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="F5">
-        <v>16366</v>
+        <v>15858</v>
       </c>
       <c r="G5">
-        <v>2912</v>
+        <v>2812</v>
       </c>
       <c r="H5">
-        <v>9054</v>
+        <v>8731</v>
       </c>
       <c r="I5">
-        <v>3450</v>
+        <v>3263</v>
       </c>
       <c r="J5">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K5">
-        <v>1102</v>
+        <v>1060</v>
       </c>
       <c r="L5">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="M5">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>2901</v>
+        <v>2792</v>
       </c>
       <c r="C6">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D6">
-        <v>2228</v>
+        <v>2123</v>
       </c>
       <c r="E6">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I6">
         <v>13</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>1758</v>
+        <v>1671</v>
       </c>
       <c r="M6">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1449,25 +1449,25 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2711</v>
+        <v>2627</v>
       </c>
       <c r="C7">
-        <v>2556</v>
+        <v>2477</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>62</v>
       </c>
       <c r="F7">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2281</v>
+        <v>2209</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1490,13 +1490,13 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C8">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1531,25 +1531,25 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C9">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1664,40 +1664,40 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>1801959</v>
+        <v>1743461</v>
       </c>
       <c r="C2">
-        <v>1101155</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
-        <v>700804</v>
+        <v>677550</v>
       </c>
       <c r="E2">
-        <v>175747</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>318405</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>188558</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>418445</v>
+        <v>405492</v>
       </c>
       <c r="I2">
-        <v>195833</v>
+        <v>189504</v>
       </c>
       <c r="J2">
-        <v>55254</v>
+        <v>53330</v>
       </c>
       <c r="K2">
-        <v>201397</v>
+        <v>194736</v>
       </c>
       <c r="L2">
-        <v>113237</v>
+        <v>109232</v>
       </c>
       <c r="M2">
-        <v>135083</v>
+        <v>130748</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1705,40 +1705,40 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>276471</v>
+        <v>266749</v>
       </c>
       <c r="C3">
-        <v>173865</v>
+        <v>167476</v>
       </c>
       <c r="D3">
-        <v>102606</v>
+        <v>99273</v>
       </c>
       <c r="E3">
-        <v>80030</v>
+        <v>77026</v>
       </c>
       <c r="F3">
-        <v>50870</v>
+        <v>48774</v>
       </c>
       <c r="G3">
-        <v>9240</v>
+        <v>8935</v>
       </c>
       <c r="H3">
-        <v>33725</v>
+        <v>32741</v>
       </c>
       <c r="I3">
-        <v>6734</v>
+        <v>6481</v>
       </c>
       <c r="J3">
-        <v>5454</v>
+        <v>5272</v>
       </c>
       <c r="K3">
-        <v>26968</v>
+        <v>26144</v>
       </c>
       <c r="L3">
-        <v>53740</v>
+        <v>51983</v>
       </c>
       <c r="M3">
-        <v>9710</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1746,40 +1746,40 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>89593</v>
+        <v>86368</v>
       </c>
       <c r="C4">
-        <v>45503</v>
+        <v>43911</v>
       </c>
       <c r="D4">
-        <v>44090</v>
+        <v>42457</v>
       </c>
       <c r="E4">
-        <v>3381</v>
+        <v>3258</v>
       </c>
       <c r="F4">
-        <v>24212</v>
+        <v>23365</v>
       </c>
       <c r="G4">
-        <v>3137</v>
+        <v>3014</v>
       </c>
       <c r="H4">
-        <v>14773</v>
+        <v>14274</v>
       </c>
       <c r="I4">
-        <v>3784</v>
+        <v>3669</v>
       </c>
       <c r="J4">
-        <v>8964</v>
+        <v>8598</v>
       </c>
       <c r="K4">
-        <v>5263</v>
+        <v>5071</v>
       </c>
       <c r="L4">
-        <v>19096</v>
+        <v>18407</v>
       </c>
       <c r="M4">
-        <v>6983</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1787,28 +1787,28 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>80426</v>
+        <v>77918</v>
       </c>
       <c r="C5">
-        <v>47410</v>
+        <v>45955</v>
       </c>
       <c r="D5">
-        <v>33016</v>
+        <v>31963</v>
       </c>
       <c r="E5">
-        <v>8033</v>
+        <v>7782</v>
       </c>
       <c r="F5">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="G5">
-        <v>36445</v>
+        <v>35350</v>
       </c>
       <c r="H5">
-        <v>1503</v>
+        <v>1449</v>
       </c>
       <c r="I5">
-        <v>32958</v>
+        <v>31908</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1828,40 +1828,40 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>29135</v>
+        <v>28106</v>
       </c>
       <c r="C6">
-        <v>23191</v>
+        <v>22442</v>
       </c>
       <c r="D6">
-        <v>5944</v>
+        <v>5664</v>
       </c>
       <c r="E6">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="F6">
-        <v>16059</v>
+        <v>15561</v>
       </c>
       <c r="G6">
-        <v>2912</v>
+        <v>2812</v>
       </c>
       <c r="H6">
-        <v>3303</v>
+        <v>3184</v>
       </c>
       <c r="I6">
-        <v>3441</v>
+        <v>3254</v>
       </c>
       <c r="J6">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K6">
-        <v>1085</v>
+        <v>1043</v>
       </c>
       <c r="L6">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="M6">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1869,10 +1869,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>6107</v>
+        <v>5893</v>
       </c>
       <c r="C7">
-        <v>6058</v>
+        <v>5844</v>
       </c>
       <c r="D7">
         <v>49</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5751</v>
+        <v>5547</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -1910,25 +1910,25 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>2711</v>
+        <v>2627</v>
       </c>
       <c r="C8">
-        <v>2556</v>
+        <v>2477</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>62</v>
       </c>
       <c r="F8">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2281</v>
+        <v>2209</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1951,22 +1951,22 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>1554</v>
+        <v>1498</v>
       </c>
       <c r="C9">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D9">
-        <v>1215</v>
+        <v>1170</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>40</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1992,40 +1992,40 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>1347</v>
+        <v>1294</v>
       </c>
       <c r="C10">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D10">
-        <v>1013</v>
+        <v>953</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I10">
         <v>13</v>
       </c>
       <c r="J10">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="M10">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2033,13 +2033,13 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C11">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2074,25 +2074,25 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C12">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2115,10 +2115,10 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2207,40 +2207,40 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>1801959</v>
+        <v>1743461</v>
       </c>
       <c r="C2">
-        <v>1101155</v>
+        <v>1065911</v>
       </c>
       <c r="D2">
-        <v>700804</v>
+        <v>677550</v>
       </c>
       <c r="E2">
-        <v>175747</v>
+        <v>170231</v>
       </c>
       <c r="F2">
-        <v>318405</v>
+        <v>307967</v>
       </c>
       <c r="G2">
-        <v>188558</v>
+        <v>182221</v>
       </c>
       <c r="H2">
-        <v>418445</v>
+        <v>405492</v>
       </c>
       <c r="I2">
-        <v>195833</v>
+        <v>189504</v>
       </c>
       <c r="J2">
-        <v>55254</v>
+        <v>53330</v>
       </c>
       <c r="K2">
-        <v>201397</v>
+        <v>194736</v>
       </c>
       <c r="L2">
-        <v>113237</v>
+        <v>109232</v>
       </c>
       <c r="M2">
-        <v>135083</v>
+        <v>130748</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2248,40 +2248,40 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>123845</v>
+        <v>119179</v>
       </c>
       <c r="C3">
-        <v>71180</v>
+        <v>68139</v>
       </c>
       <c r="D3">
-        <v>52665</v>
+        <v>51040</v>
       </c>
       <c r="E3">
-        <v>51139</v>
+        <v>49137</v>
       </c>
       <c r="F3">
-        <v>6089</v>
+        <v>5425</v>
       </c>
       <c r="G3">
-        <v>5308</v>
+        <v>5132</v>
       </c>
       <c r="H3">
-        <v>8644</v>
+        <v>8445</v>
       </c>
       <c r="I3">
-        <v>3864</v>
+        <v>3732</v>
       </c>
       <c r="J3">
-        <v>1213</v>
+        <v>1158</v>
       </c>
       <c r="K3">
-        <v>18519</v>
+        <v>17977</v>
       </c>
       <c r="L3">
-        <v>26275</v>
+        <v>25459</v>
       </c>
       <c r="M3">
-        <v>2794</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2289,28 +2289,28 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>80426</v>
+        <v>77918</v>
       </c>
       <c r="C4">
-        <v>47410</v>
+        <v>45955</v>
       </c>
       <c r="D4">
-        <v>33016</v>
+        <v>31963</v>
       </c>
       <c r="E4">
-        <v>8033</v>
+        <v>7782</v>
       </c>
       <c r="F4">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="G4">
-        <v>36445</v>
+        <v>35350</v>
       </c>
       <c r="H4">
-        <v>1503</v>
+        <v>1449</v>
       </c>
       <c r="I4">
-        <v>32958</v>
+        <v>31908</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -2330,40 +2330,40 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>75377</v>
+        <v>72804</v>
       </c>
       <c r="C5">
-        <v>41304</v>
+        <v>39902</v>
       </c>
       <c r="D5">
-        <v>34073</v>
+        <v>32902</v>
       </c>
       <c r="E5">
-        <v>25171</v>
+        <v>24295</v>
       </c>
       <c r="F5">
-        <v>1394</v>
+        <v>1339</v>
       </c>
       <c r="G5">
-        <v>2681</v>
+        <v>2593</v>
       </c>
       <c r="H5">
-        <v>12058</v>
+        <v>11675</v>
       </c>
       <c r="I5">
-        <v>1958</v>
+        <v>1876</v>
       </c>
       <c r="J5">
-        <v>4014</v>
+        <v>3895</v>
       </c>
       <c r="K5">
-        <v>7173</v>
+        <v>6940</v>
       </c>
       <c r="L5">
-        <v>15149</v>
+        <v>14616</v>
       </c>
       <c r="M5">
-        <v>5779</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2371,40 +2371,40 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>73662</v>
+        <v>70936</v>
       </c>
       <c r="C6">
-        <v>35297</v>
+        <v>34004</v>
       </c>
       <c r="D6">
-        <v>38365</v>
+        <v>36932</v>
       </c>
       <c r="E6">
-        <v>2725</v>
+        <v>2619</v>
       </c>
       <c r="F6">
-        <v>19251</v>
+        <v>18557</v>
       </c>
       <c r="G6">
-        <v>2005</v>
+        <v>1914</v>
       </c>
       <c r="H6">
-        <v>11316</v>
+        <v>10914</v>
       </c>
       <c r="I6">
-        <v>2210</v>
+        <v>2142</v>
       </c>
       <c r="J6">
-        <v>8751</v>
+        <v>8394</v>
       </c>
       <c r="K6">
-        <v>4403</v>
+        <v>4238</v>
       </c>
       <c r="L6">
-        <v>16861</v>
+        <v>16258</v>
       </c>
       <c r="M6">
-        <v>6140</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2412,40 +2412,40 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>63029</v>
+        <v>61013</v>
       </c>
       <c r="C7">
-        <v>50875</v>
+        <v>49272</v>
       </c>
       <c r="D7">
-        <v>12154</v>
+        <v>11741</v>
       </c>
       <c r="E7">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="F7">
-        <v>43121</v>
+        <v>41750</v>
       </c>
       <c r="G7">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="H7">
-        <v>6504</v>
+        <v>6315</v>
       </c>
       <c r="I7">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J7">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K7">
-        <v>893</v>
+        <v>855</v>
       </c>
       <c r="L7">
-        <v>10117</v>
+        <v>9773</v>
       </c>
       <c r="M7">
-        <v>689</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2453,40 +2453,40 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>22795</v>
+        <v>22024</v>
       </c>
       <c r="C8">
-        <v>20069</v>
+        <v>19426</v>
       </c>
       <c r="D8">
-        <v>2726</v>
+        <v>2598</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F8">
-        <v>15499</v>
+        <v>15019</v>
       </c>
       <c r="G8">
-        <v>1222</v>
+        <v>1185</v>
       </c>
       <c r="H8">
-        <v>3148</v>
+        <v>3034</v>
       </c>
       <c r="I8">
-        <v>1425</v>
+        <v>1346</v>
       </c>
       <c r="J8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="L8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M8">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2494,40 +2494,40 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>7919</v>
+        <v>7690</v>
       </c>
       <c r="C9">
-        <v>4561</v>
+        <v>4443</v>
       </c>
       <c r="D9">
-        <v>3358</v>
+        <v>3247</v>
       </c>
       <c r="E9">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F9">
-        <v>1769</v>
+        <v>1714</v>
       </c>
       <c r="G9">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="H9">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="I9">
-        <v>1410</v>
+        <v>1367</v>
       </c>
       <c r="J9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L9">
-        <v>1167</v>
+        <v>1127</v>
       </c>
       <c r="M9">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2535,40 +2535,40 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>6837</v>
+        <v>6613</v>
       </c>
       <c r="C10">
-        <v>5076</v>
+        <v>4917</v>
       </c>
       <c r="D10">
-        <v>1761</v>
+        <v>1696</v>
       </c>
       <c r="E10">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F10">
-        <v>2639</v>
+        <v>2562</v>
       </c>
       <c r="G10">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H10">
-        <v>2110</v>
+        <v>2039</v>
       </c>
       <c r="I10">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J10">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L10">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="M10">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2576,16 +2576,16 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>6513</v>
+        <v>6292</v>
       </c>
       <c r="C11">
-        <v>6169</v>
+        <v>5955</v>
       </c>
       <c r="D11">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E11">
-        <v>1529</v>
+        <v>1472</v>
       </c>
       <c r="F11">
         <v>14</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4626</v>
+        <v>4469</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>72</v>
       </c>
       <c r="M11">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2617,40 +2617,40 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>6042</v>
+        <v>5823</v>
       </c>
       <c r="C12">
-        <v>2944</v>
+        <v>5823</v>
       </c>
       <c r="D12">
-        <v>3098</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>466</v>
+        <v>276</v>
       </c>
       <c r="G12">
-        <v>1685</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>5547</v>
       </c>
       <c r="I12">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2658,40 +2658,40 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>6037</v>
+        <v>5789</v>
       </c>
       <c r="C13">
-        <v>6037</v>
+        <v>2841</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="F13">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="H13">
-        <v>5751</v>
+        <v>126</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2699,40 +2699,40 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>3403</v>
+        <v>3290</v>
       </c>
       <c r="C14">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="D14">
-        <v>2319</v>
+        <v>2241</v>
       </c>
       <c r="E14">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="H14">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I14">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="J14">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L14">
-        <v>1597</v>
+        <v>1550</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2740,25 +2740,25 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>2711</v>
+        <v>2627</v>
       </c>
       <c r="C15">
-        <v>2556</v>
+        <v>2477</v>
       </c>
       <c r="D15">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>62</v>
       </c>
       <c r="F15">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2281</v>
+        <v>2209</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2781,40 +2781,40 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>2220</v>
+        <v>2152</v>
       </c>
       <c r="C16">
-        <v>2045</v>
+        <v>1991</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E16">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F16">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <v>9</v>
       </c>
       <c r="H16">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2822,19 +2822,19 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>1495</v>
+        <v>1441</v>
       </c>
       <c r="C17">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D17">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2863,37 +2863,37 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>1377</v>
+        <v>1329</v>
       </c>
       <c r="C18">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="D18">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E18">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F18">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="I18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L18">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M18">
         <v>47</v>
@@ -2904,40 +2904,40 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>1347</v>
+        <v>1294</v>
       </c>
       <c r="C19">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D19">
-        <v>1013</v>
+        <v>953</v>
       </c>
       <c r="E19">
         <v>34</v>
       </c>
       <c r="F19">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I19">
         <v>13</v>
       </c>
       <c r="J19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="M19">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2945,13 +2945,13 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C20">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D20">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C21">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3027,13 +3027,13 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3068,28 +3068,28 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C23">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3109,25 +3109,25 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C24">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>26</v>
       </c>
       <c r="F25">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -3180,7 +3180,7 @@
         <v>66</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M25">
         <v>22</v>
@@ -3191,13 +3191,13 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27">
         <v>19</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3396,10 +3396,10 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3652,40 +3652,40 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>1029572</v>
+        <v>998193</v>
       </c>
       <c r="C2">
-        <v>610189</v>
+        <v>591896</v>
       </c>
       <c r="D2">
-        <v>419383</v>
+        <v>406297</v>
       </c>
       <c r="E2">
-        <v>110699</v>
+        <v>107417</v>
       </c>
       <c r="F2">
-        <v>116012</v>
+        <v>112575</v>
       </c>
       <c r="G2">
-        <v>114755</v>
+        <v>111032</v>
       </c>
       <c r="H2">
-        <v>268723</v>
+        <v>260872</v>
       </c>
       <c r="I2">
-        <v>120622</v>
+        <v>116891</v>
       </c>
       <c r="J2">
-        <v>30510</v>
+        <v>29523</v>
       </c>
       <c r="K2">
-        <v>92826</v>
+        <v>90108</v>
       </c>
       <c r="L2">
-        <v>99864</v>
+        <v>96343</v>
       </c>
       <c r="M2">
-        <v>75561</v>
+        <v>73432</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3693,40 +3693,40 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>408829</v>
+        <v>394254</v>
       </c>
       <c r="C3">
-        <v>242953</v>
+        <v>234542</v>
       </c>
       <c r="D3">
-        <v>165876</v>
+        <v>159712</v>
       </c>
       <c r="E3">
-        <v>30616</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>160178</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>16120</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>36039</v>
+        <v>34869</v>
       </c>
       <c r="I3">
-        <v>17130</v>
+        <v>16528</v>
       </c>
       <c r="J3">
-        <v>16801</v>
+        <v>16190</v>
       </c>
       <c r="K3">
-        <v>80298</v>
+        <v>77297</v>
       </c>
       <c r="L3">
-        <v>7109</v>
+        <v>6844</v>
       </c>
       <c r="M3">
-        <v>44538</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3734,40 +3734,40 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <v>276172</v>
+        <v>266463</v>
       </c>
       <c r="C4">
-        <v>177271</v>
+        <v>171032</v>
       </c>
       <c r="D4">
-        <v>98901</v>
+        <v>95431</v>
       </c>
       <c r="E4">
-        <v>25684</v>
+        <v>24781</v>
       </c>
       <c r="F4">
-        <v>1929</v>
+        <v>1855</v>
       </c>
       <c r="G4">
-        <v>52214</v>
+        <v>50340</v>
       </c>
       <c r="H4">
-        <v>97444</v>
+        <v>94056</v>
       </c>
       <c r="I4">
-        <v>51974</v>
+        <v>50166</v>
       </c>
       <c r="J4">
-        <v>7597</v>
+        <v>7284</v>
       </c>
       <c r="K4">
-        <v>19050</v>
+        <v>18410</v>
       </c>
       <c r="L4">
-        <v>5863</v>
+        <v>5662</v>
       </c>
       <c r="M4">
-        <v>14417</v>
+        <v>13909</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3775,40 +3775,40 @@
         <v>71</v>
       </c>
       <c r="B5">
-        <v>123654</v>
+        <v>118997</v>
       </c>
       <c r="C5">
-        <v>71094</v>
+        <v>68057</v>
       </c>
       <c r="D5">
-        <v>52560</v>
+        <v>50940</v>
       </c>
       <c r="E5">
-        <v>51139</v>
+        <v>49137</v>
       </c>
       <c r="F5">
-        <v>6068</v>
+        <v>5405</v>
       </c>
       <c r="G5">
-        <v>5308</v>
+        <v>5132</v>
       </c>
       <c r="H5">
-        <v>8579</v>
+        <v>8383</v>
       </c>
       <c r="I5">
-        <v>3864</v>
+        <v>3732</v>
       </c>
       <c r="J5">
-        <v>1177</v>
+        <v>1123</v>
       </c>
       <c r="K5">
-        <v>18519</v>
+        <v>17977</v>
       </c>
       <c r="L5">
-        <v>26266</v>
+        <v>25451</v>
       </c>
       <c r="M5">
-        <v>2734</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3816,28 +3816,28 @@
         <v>72</v>
       </c>
       <c r="B6">
-        <v>80426</v>
+        <v>77918</v>
       </c>
       <c r="C6">
-        <v>47410</v>
+        <v>45955</v>
       </c>
       <c r="D6">
-        <v>33016</v>
+        <v>31963</v>
       </c>
       <c r="E6">
-        <v>8033</v>
+        <v>7782</v>
       </c>
       <c r="F6">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="G6">
-        <v>36445</v>
+        <v>35350</v>
       </c>
       <c r="H6">
-        <v>1503</v>
+        <v>1449</v>
       </c>
       <c r="I6">
-        <v>32958</v>
+        <v>31908</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -3857,40 +3857,40 @@
         <v>73</v>
       </c>
       <c r="B7">
-        <v>71566</v>
+        <v>68932</v>
       </c>
       <c r="C7">
-        <v>34349</v>
+        <v>33101</v>
       </c>
       <c r="D7">
-        <v>37217</v>
+        <v>35831</v>
       </c>
       <c r="E7">
-        <v>2613</v>
+        <v>2512</v>
       </c>
       <c r="F7">
-        <v>18692</v>
+        <v>18025</v>
       </c>
       <c r="G7">
-        <v>1767</v>
+        <v>1685</v>
       </c>
       <c r="H7">
-        <v>11277</v>
+        <v>10879</v>
       </c>
       <c r="I7">
-        <v>2051</v>
+        <v>1988</v>
       </c>
       <c r="J7">
-        <v>8600</v>
+        <v>8250</v>
       </c>
       <c r="K7">
-        <v>4294</v>
+        <v>4137</v>
       </c>
       <c r="L7">
-        <v>16511</v>
+        <v>15916</v>
       </c>
       <c r="M7">
-        <v>5761</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3898,40 +3898,40 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>62142</v>
+        <v>60157</v>
       </c>
       <c r="C8">
-        <v>50293</v>
+        <v>48713</v>
       </c>
       <c r="D8">
-        <v>11849</v>
+        <v>11444</v>
       </c>
       <c r="E8">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F8">
-        <v>43121</v>
+        <v>41750</v>
       </c>
       <c r="G8">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H8">
-        <v>6196</v>
+        <v>6022</v>
       </c>
       <c r="I8">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K8">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="L8">
-        <v>10034</v>
+        <v>9695</v>
       </c>
       <c r="M8">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3939,40 +3939,40 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>54900</v>
+        <v>53164</v>
       </c>
       <c r="C9">
-        <v>41524</v>
+        <v>40210</v>
       </c>
       <c r="D9">
-        <v>13376</v>
+        <v>12954</v>
       </c>
       <c r="E9">
-        <v>1765</v>
+        <v>1713</v>
       </c>
       <c r="F9">
-        <v>30382</v>
+        <v>29395</v>
       </c>
       <c r="G9">
-        <v>5469</v>
+        <v>5313</v>
       </c>
       <c r="H9">
-        <v>3908</v>
+        <v>3789</v>
       </c>
       <c r="I9">
-        <v>6107</v>
+        <v>5919</v>
       </c>
       <c r="J9">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K9">
-        <v>6460</v>
+        <v>6254</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M9">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3980,40 +3980,40 @@
         <v>76</v>
       </c>
       <c r="B10">
-        <v>39222</v>
+        <v>37905</v>
       </c>
       <c r="C10">
-        <v>21425</v>
+        <v>20697</v>
       </c>
       <c r="D10">
-        <v>17797</v>
+        <v>17208</v>
       </c>
       <c r="E10">
-        <v>15484</v>
+        <v>14953</v>
       </c>
       <c r="F10">
-        <v>1152</v>
+        <v>1110</v>
       </c>
       <c r="G10">
-        <v>2033</v>
+        <v>1963</v>
       </c>
       <c r="H10">
-        <v>2756</v>
+        <v>2671</v>
       </c>
       <c r="I10">
-        <v>1491</v>
+        <v>1443</v>
       </c>
       <c r="J10">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="K10">
-        <v>6503</v>
+        <v>6291</v>
       </c>
       <c r="L10">
-        <v>8245</v>
+        <v>7960</v>
       </c>
       <c r="M10">
-        <v>873</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4021,40 +4021,40 @@
         <v>77</v>
       </c>
       <c r="B11">
-        <v>32486</v>
+        <v>31387</v>
       </c>
       <c r="C11">
-        <v>29218</v>
+        <v>28231</v>
       </c>
       <c r="D11">
-        <v>3268</v>
+        <v>3156</v>
       </c>
       <c r="E11">
-        <v>6983</v>
+        <v>6754</v>
       </c>
       <c r="F11">
-        <v>9904</v>
+        <v>9571</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12331</v>
+        <v>11906</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K11">
-        <v>2763</v>
+        <v>2667</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M11">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4062,40 +4062,40 @@
         <v>78</v>
       </c>
       <c r="B12">
-        <v>22321</v>
+        <v>21598</v>
       </c>
       <c r="C12">
-        <v>19800</v>
+        <v>19169</v>
       </c>
       <c r="D12">
-        <v>2521</v>
+        <v>2429</v>
       </c>
       <c r="E12">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F12">
-        <v>15341</v>
+        <v>14866</v>
       </c>
       <c r="G12">
-        <v>1189</v>
+        <v>1154</v>
       </c>
       <c r="H12">
-        <v>3101</v>
+        <v>2989</v>
       </c>
       <c r="I12">
-        <v>1384</v>
+        <v>1338</v>
       </c>
       <c r="J12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4103,40 +4103,40 @@
         <v>79</v>
       </c>
       <c r="B13">
-        <v>18712</v>
+        <v>18102</v>
       </c>
       <c r="C13">
-        <v>7774</v>
+        <v>7538</v>
       </c>
       <c r="D13">
-        <v>10938</v>
+        <v>10564</v>
       </c>
       <c r="E13">
-        <v>3595</v>
+        <v>3474</v>
       </c>
       <c r="F13">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="H13">
-        <v>3478</v>
+        <v>3384</v>
       </c>
       <c r="I13">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="J13">
-        <v>1931</v>
+        <v>1878</v>
       </c>
       <c r="K13">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="L13">
-        <v>3627</v>
+        <v>3508</v>
       </c>
       <c r="M13">
-        <v>4381</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4144,40 +4144,40 @@
         <v>80</v>
       </c>
       <c r="B14">
-        <v>14523</v>
+        <v>13996</v>
       </c>
       <c r="C14">
-        <v>9614</v>
+        <v>9280</v>
       </c>
       <c r="D14">
-        <v>4909</v>
+        <v>4716</v>
       </c>
       <c r="E14">
-        <v>5646</v>
+        <v>5442</v>
       </c>
       <c r="F14">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3779</v>
+        <v>3659</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1370</v>
+        <v>1325</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>3098</v>
+        <v>2972</v>
       </c>
       <c r="M14">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4185,40 +4185,40 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>7919</v>
+        <v>7690</v>
       </c>
       <c r="C15">
-        <v>4561</v>
+        <v>4443</v>
       </c>
       <c r="D15">
-        <v>3358</v>
+        <v>3247</v>
       </c>
       <c r="E15">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F15">
-        <v>1769</v>
+        <v>1714</v>
       </c>
       <c r="G15">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="H15">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="I15">
-        <v>1410</v>
+        <v>1367</v>
       </c>
       <c r="J15">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L15">
-        <v>1167</v>
+        <v>1127</v>
       </c>
       <c r="M15">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4226,16 +4226,16 @@
         <v>43</v>
       </c>
       <c r="B16">
-        <v>6513</v>
+        <v>6292</v>
       </c>
       <c r="C16">
-        <v>6169</v>
+        <v>5955</v>
       </c>
       <c r="D16">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E16">
-        <v>1529</v>
+        <v>1472</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -4244,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4626</v>
+        <v>4469</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>72</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4267,40 +4267,40 @@
         <v>81</v>
       </c>
       <c r="B17">
-        <v>5964</v>
+        <v>5711</v>
       </c>
       <c r="C17">
-        <v>2894</v>
+        <v>2791</v>
       </c>
       <c r="D17">
-        <v>3070</v>
+        <v>2920</v>
       </c>
       <c r="E17">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="F17">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G17">
-        <v>1635</v>
+        <v>1572</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I17">
-        <v>1988</v>
+        <v>1880</v>
       </c>
       <c r="J17">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K17">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L17">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="M17">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4308,40 +4308,40 @@
         <v>82</v>
       </c>
       <c r="B18">
-        <v>5694</v>
+        <v>5511</v>
       </c>
       <c r="C18">
-        <v>4121</v>
+        <v>3995</v>
       </c>
       <c r="D18">
-        <v>1573</v>
+        <v>1516</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>2177</v>
+        <v>2116</v>
       </c>
       <c r="G18">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H18">
-        <v>1832</v>
+        <v>1772</v>
       </c>
       <c r="I18">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J18">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L18">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="M18">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4349,40 +4349,40 @@
         <v>83</v>
       </c>
       <c r="B19">
-        <v>3403</v>
+        <v>3290</v>
       </c>
       <c r="C19">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="D19">
-        <v>2319</v>
+        <v>2241</v>
       </c>
       <c r="E19">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="H19">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I19">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="J19">
         <v>36</v>
       </c>
       <c r="K19">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L19">
-        <v>1597</v>
+        <v>1550</v>
       </c>
       <c r="M19">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4390,25 +4390,25 @@
         <v>47</v>
       </c>
       <c r="B20">
-        <v>2711</v>
+        <v>2627</v>
       </c>
       <c r="C20">
-        <v>2556</v>
+        <v>2477</v>
       </c>
       <c r="D20">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>62</v>
       </c>
       <c r="F20">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2281</v>
+        <v>2209</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4431,40 +4431,40 @@
         <v>48</v>
       </c>
       <c r="B21">
-        <v>2220</v>
+        <v>2152</v>
       </c>
       <c r="C21">
-        <v>2045</v>
+        <v>1991</v>
       </c>
       <c r="D21">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E21">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F21">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21">
-        <v>1318</v>
+        <v>1283</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4472,13 +4472,13 @@
         <v>84</v>
       </c>
       <c r="B22">
-        <v>2158</v>
+        <v>2070</v>
       </c>
       <c r="C22">
-        <v>2008</v>
+        <v>1924</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4490,22 +4490,22 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2008</v>
+        <v>1924</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4513,40 +4513,40 @@
         <v>85</v>
       </c>
       <c r="B23">
-        <v>1867</v>
+        <v>1787</v>
       </c>
       <c r="C23">
-        <v>823</v>
+        <v>785</v>
       </c>
       <c r="D23">
-        <v>1044</v>
+        <v>1002</v>
       </c>
       <c r="E23">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F23">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="G23">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J23">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K23">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L23">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M23">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4554,19 +4554,19 @@
         <v>86</v>
       </c>
       <c r="B24">
-        <v>1495</v>
+        <v>1441</v>
       </c>
       <c r="C24">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D24">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4595,37 +4595,37 @@
         <v>87</v>
       </c>
       <c r="B25">
-        <v>1377</v>
+        <v>1329</v>
       </c>
       <c r="C25">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="D25">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E25">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F25">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="I25">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L25">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M25">
         <v>47</v>
@@ -4636,40 +4636,40 @@
         <v>88</v>
       </c>
       <c r="B26">
-        <v>1143</v>
+        <v>1102</v>
       </c>
       <c r="C26">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="D26">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E26">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F26">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="I26">
         <v>33</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4677,28 +4677,28 @@
         <v>89</v>
       </c>
       <c r="B27">
-        <v>887</v>
+        <v>856</v>
       </c>
       <c r="C27">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="D27">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E27">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H27">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I27">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>139</v>
       </c>
       <c r="L27">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M27">
         <v>21</v>
@@ -4718,16 +4718,16 @@
         <v>90</v>
       </c>
       <c r="B28">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="C28">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D28">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E28">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L28">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4759,13 +4759,13 @@
         <v>91</v>
       </c>
       <c r="B29">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C29">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D29">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4800,13 +4800,13 @@
         <v>92</v>
       </c>
       <c r="B30">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4818,22 +4818,22 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M30">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4841,10 +4841,10 @@
         <v>93</v>
       </c>
       <c r="B31">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C31">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4882,40 +4882,40 @@
         <v>94</v>
       </c>
       <c r="B32">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C32">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K32">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L32">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4923,40 +4923,40 @@
         <v>95</v>
       </c>
       <c r="B33">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D33">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L33">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M33">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4964,25 +4964,25 @@
         <v>96</v>
       </c>
       <c r="B34">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C34">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D34">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E34">
         <v>25</v>
       </c>
       <c r="F34">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>13</v>
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5005,28 +5005,28 @@
         <v>97</v>
       </c>
       <c r="B35">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C35">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D35">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
       <c r="F35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H35">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5035,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5046,25 +5046,25 @@
         <v>98</v>
       </c>
       <c r="B36">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C36">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5087,10 +5087,10 @@
         <v>99</v>
       </c>
       <c r="B37">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>103</v>
@@ -5099,7 +5099,7 @@
         <v>26</v>
       </c>
       <c r="F37">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5128,40 +5128,40 @@
         <v>100</v>
       </c>
       <c r="B38">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C38">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I38">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5169,40 +5169,40 @@
         <v>101</v>
       </c>
       <c r="B39">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C39">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H39">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J39">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5210,13 +5210,13 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -5292,16 +5292,16 @@
         <v>103</v>
       </c>
       <c r="B42">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42">
         <v>19</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5374,13 +5374,13 @@
         <v>105</v>
       </c>
       <c r="B44">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5456,10 +5456,10 @@
         <v>107</v>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5497,13 +5497,13 @@
         <v>108</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5579,16 +5579,16 @@
         <v>110</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5620,19 +5620,19 @@
         <v>111</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5664,16 +5664,16 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5784,10 +5784,10 @@
         <v>115</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5917,40 +5917,40 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>1007738</v>
+        <v>977005</v>
       </c>
       <c r="C2">
-        <v>597854</v>
+        <v>579922</v>
       </c>
       <c r="D2">
-        <v>409884</v>
+        <v>397083</v>
       </c>
       <c r="E2">
-        <v>108364</v>
+        <v>105145</v>
       </c>
       <c r="F2">
-        <v>115882</v>
+        <v>112447</v>
       </c>
       <c r="G2">
-        <v>111281</v>
+        <v>107676</v>
       </c>
       <c r="H2">
-        <v>262327</v>
+        <v>254654</v>
       </c>
       <c r="I2">
-        <v>117408</v>
+        <v>113776</v>
       </c>
       <c r="J2">
-        <v>30103</v>
+        <v>29126</v>
       </c>
       <c r="K2">
-        <v>89662</v>
+        <v>87038</v>
       </c>
       <c r="L2">
-        <v>98856</v>
+        <v>95359</v>
       </c>
       <c r="M2">
-        <v>73855</v>
+        <v>71784</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5958,40 +5958,40 @@
         <v>117</v>
       </c>
       <c r="B3">
-        <v>408829</v>
+        <v>394254</v>
       </c>
       <c r="C3">
-        <v>242953</v>
+        <v>234542</v>
       </c>
       <c r="D3">
-        <v>165876</v>
+        <v>159712</v>
       </c>
       <c r="E3">
-        <v>30616</v>
+        <v>29566</v>
       </c>
       <c r="F3">
-        <v>160178</v>
+        <v>154571</v>
       </c>
       <c r="G3">
-        <v>16120</v>
+        <v>15536</v>
       </c>
       <c r="H3">
-        <v>36039</v>
+        <v>34869</v>
       </c>
       <c r="I3">
-        <v>17130</v>
+        <v>16528</v>
       </c>
       <c r="J3">
-        <v>16801</v>
+        <v>16190</v>
       </c>
       <c r="K3">
-        <v>80298</v>
+        <v>77297</v>
       </c>
       <c r="L3">
-        <v>7109</v>
+        <v>6844</v>
       </c>
       <c r="M3">
-        <v>44538</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5999,40 +5999,40 @@
         <v>118</v>
       </c>
       <c r="B4">
-        <v>174856</v>
+        <v>168681</v>
       </c>
       <c r="C4">
-        <v>132688</v>
+        <v>128014</v>
       </c>
       <c r="D4">
-        <v>42168</v>
+        <v>40667</v>
       </c>
       <c r="E4">
-        <v>8042</v>
+        <v>7749</v>
       </c>
       <c r="F4">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>33487</v>
+        <v>32288</v>
       </c>
       <c r="H4">
-        <v>90945</v>
+        <v>87773</v>
       </c>
       <c r="I4">
-        <v>31261</v>
+        <v>30175</v>
       </c>
       <c r="J4">
-        <v>3211</v>
+        <v>3066</v>
       </c>
       <c r="K4">
-        <v>2156</v>
+        <v>2082</v>
       </c>
       <c r="L4">
-        <v>1136</v>
+        <v>1103</v>
       </c>
       <c r="M4">
-        <v>4404</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6040,40 +6040,40 @@
         <v>119</v>
       </c>
       <c r="B5">
-        <v>101316</v>
+        <v>97782</v>
       </c>
       <c r="C5">
-        <v>44583</v>
+        <v>43018</v>
       </c>
       <c r="D5">
-        <v>56733</v>
+        <v>54764</v>
       </c>
       <c r="E5">
-        <v>17642</v>
+        <v>17032</v>
       </c>
       <c r="F5">
-        <v>1715</v>
+        <v>1651</v>
       </c>
       <c r="G5">
-        <v>18727</v>
+        <v>18052</v>
       </c>
       <c r="H5">
-        <v>6499</v>
+        <v>6283</v>
       </c>
       <c r="I5">
-        <v>20713</v>
+        <v>19991</v>
       </c>
       <c r="J5">
-        <v>4386</v>
+        <v>4218</v>
       </c>
       <c r="K5">
-        <v>16894</v>
+        <v>16328</v>
       </c>
       <c r="L5">
-        <v>4727</v>
+        <v>4559</v>
       </c>
       <c r="M5">
-        <v>10013</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6081,28 +6081,28 @@
         <v>120</v>
       </c>
       <c r="B6">
-        <v>80426</v>
+        <v>77918</v>
       </c>
       <c r="C6">
-        <v>47410</v>
+        <v>45955</v>
       </c>
       <c r="D6">
-        <v>33016</v>
+        <v>31963</v>
       </c>
       <c r="E6">
-        <v>8033</v>
+        <v>7782</v>
       </c>
       <c r="F6">
-        <v>1429</v>
+        <v>1374</v>
       </c>
       <c r="G6">
-        <v>36445</v>
+        <v>35350</v>
       </c>
       <c r="H6">
-        <v>1503</v>
+        <v>1449</v>
       </c>
       <c r="I6">
-        <v>32958</v>
+        <v>31908</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -6122,40 +6122,40 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>72707</v>
+        <v>70034</v>
       </c>
       <c r="C7">
-        <v>42530</v>
+        <v>40765</v>
       </c>
       <c r="D7">
-        <v>30177</v>
+        <v>29269</v>
       </c>
       <c r="E7">
-        <v>29112</v>
+        <v>27849</v>
       </c>
       <c r="F7">
-        <v>2217</v>
+        <v>2080</v>
       </c>
       <c r="G7">
-        <v>2594</v>
+        <v>2512</v>
       </c>
       <c r="H7">
-        <v>8607</v>
+        <v>8324</v>
       </c>
       <c r="I7">
-        <v>2742</v>
+        <v>2642</v>
       </c>
       <c r="J7">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="K7">
-        <v>14288</v>
+        <v>13859</v>
       </c>
       <c r="L7">
-        <v>11433</v>
+        <v>11098</v>
       </c>
       <c r="M7">
-        <v>1156</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6163,40 +6163,40 @@
         <v>121</v>
       </c>
       <c r="B8">
-        <v>71566</v>
+        <v>68932</v>
       </c>
       <c r="C8">
-        <v>34349</v>
+        <v>33101</v>
       </c>
       <c r="D8">
-        <v>37217</v>
+        <v>35831</v>
       </c>
       <c r="E8">
-        <v>2613</v>
+        <v>2512</v>
       </c>
       <c r="F8">
-        <v>18692</v>
+        <v>18025</v>
       </c>
       <c r="G8">
-        <v>1767</v>
+        <v>1685</v>
       </c>
       <c r="H8">
-        <v>11277</v>
+        <v>10879</v>
       </c>
       <c r="I8">
-        <v>2051</v>
+        <v>1988</v>
       </c>
       <c r="J8">
-        <v>8600</v>
+        <v>8250</v>
       </c>
       <c r="K8">
-        <v>4294</v>
+        <v>4137</v>
       </c>
       <c r="L8">
-        <v>16511</v>
+        <v>15916</v>
       </c>
       <c r="M8">
-        <v>5761</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6204,40 +6204,40 @@
         <v>122</v>
       </c>
       <c r="B9">
-        <v>55614</v>
+        <v>53824</v>
       </c>
       <c r="C9">
-        <v>43765</v>
+        <v>42380</v>
       </c>
       <c r="D9">
-        <v>11849</v>
+        <v>11444</v>
       </c>
       <c r="E9">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F9">
-        <v>36593</v>
+        <v>35417</v>
       </c>
       <c r="G9">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H9">
-        <v>6196</v>
+        <v>6022</v>
       </c>
       <c r="I9">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K9">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="L9">
-        <v>10034</v>
+        <v>9695</v>
       </c>
       <c r="M9">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6245,40 +6245,40 @@
         <v>123</v>
       </c>
       <c r="B10">
-        <v>54900</v>
+        <v>53164</v>
       </c>
       <c r="C10">
-        <v>41524</v>
+        <v>40210</v>
       </c>
       <c r="D10">
-        <v>13376</v>
+        <v>12954</v>
       </c>
       <c r="E10">
-        <v>1765</v>
+        <v>1713</v>
       </c>
       <c r="F10">
-        <v>30382</v>
+        <v>29395</v>
       </c>
       <c r="G10">
-        <v>5469</v>
+        <v>5313</v>
       </c>
       <c r="H10">
-        <v>3908</v>
+        <v>3789</v>
       </c>
       <c r="I10">
-        <v>6107</v>
+        <v>5919</v>
       </c>
       <c r="J10">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K10">
-        <v>6460</v>
+        <v>6254</v>
       </c>
       <c r="L10">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M10">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6286,40 +6286,40 @@
         <v>124</v>
       </c>
       <c r="B11">
-        <v>48089</v>
+        <v>46579</v>
       </c>
       <c r="C11">
-        <v>27126</v>
+        <v>26298</v>
       </c>
       <c r="D11">
-        <v>20963</v>
+        <v>20281</v>
       </c>
       <c r="E11">
-        <v>25243</v>
+        <v>24469</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11">
-        <v>1782</v>
+        <v>1730</v>
       </c>
       <c r="I11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="K11">
-        <v>6716</v>
+        <v>6516</v>
       </c>
       <c r="L11">
-        <v>11783</v>
+        <v>11371</v>
       </c>
       <c r="M11">
-        <v>1720</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6327,40 +6327,40 @@
         <v>125</v>
       </c>
       <c r="B12">
-        <v>32486</v>
+        <v>31387</v>
       </c>
       <c r="C12">
-        <v>29218</v>
+        <v>28231</v>
       </c>
       <c r="D12">
-        <v>3268</v>
+        <v>3156</v>
       </c>
       <c r="E12">
-        <v>6983</v>
+        <v>6754</v>
       </c>
       <c r="F12">
-        <v>9904</v>
+        <v>9571</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12331</v>
+        <v>11906</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K12">
-        <v>2763</v>
+        <v>2667</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M12">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6368,40 +6368,40 @@
         <v>126</v>
       </c>
       <c r="B13">
-        <v>22321</v>
+        <v>21598</v>
       </c>
       <c r="C13">
-        <v>19800</v>
+        <v>19169</v>
       </c>
       <c r="D13">
-        <v>2521</v>
+        <v>2429</v>
       </c>
       <c r="E13">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F13">
-        <v>15341</v>
+        <v>14866</v>
       </c>
       <c r="G13">
-        <v>1189</v>
+        <v>1154</v>
       </c>
       <c r="H13">
-        <v>3101</v>
+        <v>2989</v>
       </c>
       <c r="I13">
-        <v>1384</v>
+        <v>1338</v>
       </c>
       <c r="J13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6409,40 +6409,40 @@
         <v>127</v>
       </c>
       <c r="B14">
-        <v>21834</v>
+        <v>21188</v>
       </c>
       <c r="C14">
-        <v>12335</v>
+        <v>11974</v>
       </c>
       <c r="D14">
-        <v>9499</v>
+        <v>9214</v>
       </c>
       <c r="E14">
-        <v>2335</v>
+        <v>2272</v>
       </c>
       <c r="F14">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14">
-        <v>3474</v>
+        <v>3356</v>
       </c>
       <c r="H14">
-        <v>6396</v>
+        <v>6218</v>
       </c>
       <c r="I14">
-        <v>3214</v>
+        <v>3115</v>
       </c>
       <c r="J14">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K14">
-        <v>3164</v>
+        <v>3070</v>
       </c>
       <c r="L14">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="M14">
-        <v>1706</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6450,40 +6450,40 @@
         <v>80</v>
       </c>
       <c r="B15">
-        <v>14523</v>
+        <v>13996</v>
       </c>
       <c r="C15">
-        <v>9614</v>
+        <v>9280</v>
       </c>
       <c r="D15">
-        <v>4909</v>
+        <v>4716</v>
       </c>
       <c r="E15">
-        <v>5646</v>
+        <v>5442</v>
       </c>
       <c r="F15">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3779</v>
+        <v>3659</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1370</v>
+        <v>1325</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>3098</v>
+        <v>2972</v>
       </c>
       <c r="M15">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6491,40 +6491,40 @@
         <v>128</v>
       </c>
       <c r="B16">
-        <v>12474</v>
+        <v>12151</v>
       </c>
       <c r="C16">
-        <v>5151</v>
+        <v>5064</v>
       </c>
       <c r="D16">
-        <v>7323</v>
+        <v>7087</v>
       </c>
       <c r="E16">
-        <v>3171</v>
+        <v>3063</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1908</v>
+        <v>1838</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="I16">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="J16">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K16">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="L16">
-        <v>4865</v>
+        <v>4697</v>
       </c>
       <c r="M16">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6532,40 +6532,40 @@
         <v>129</v>
       </c>
       <c r="B17">
-        <v>10659</v>
+        <v>10328</v>
       </c>
       <c r="C17">
-        <v>3460</v>
+        <v>3362</v>
       </c>
       <c r="D17">
-        <v>7199</v>
+        <v>6966</v>
       </c>
       <c r="E17">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H17">
-        <v>2665</v>
+        <v>2587</v>
       </c>
       <c r="I17">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J17">
-        <v>1662</v>
+        <v>1617</v>
       </c>
       <c r="K17">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L17">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="M17">
-        <v>4024</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6573,37 +6573,37 @@
         <v>130</v>
       </c>
       <c r="B18">
-        <v>7478</v>
+        <v>7220</v>
       </c>
       <c r="C18">
-        <v>4530</v>
+        <v>4325</v>
       </c>
       <c r="D18">
-        <v>2948</v>
+        <v>2895</v>
       </c>
       <c r="E18">
-        <v>1347</v>
+        <v>1242</v>
       </c>
       <c r="F18">
-        <v>1370</v>
+        <v>1328</v>
       </c>
       <c r="G18">
-        <v>1729</v>
+        <v>1671</v>
       </c>
       <c r="H18">
         <v>84</v>
       </c>
       <c r="I18">
-        <v>1201</v>
+        <v>1158</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1548</v>
+        <v>1505</v>
       </c>
       <c r="L18">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>131</v>
       </c>
       <c r="B19">
-        <v>6528</v>
+        <v>6333</v>
       </c>
       <c r="C19">
-        <v>6528</v>
+        <v>6333</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6528</v>
+        <v>6333</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6655,16 +6655,16 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>6513</v>
+        <v>6292</v>
       </c>
       <c r="C20">
-        <v>6169</v>
+        <v>5955</v>
       </c>
       <c r="D20">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E20">
-        <v>1529</v>
+        <v>1472</v>
       </c>
       <c r="F20">
         <v>14</v>
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4626</v>
+        <v>4469</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>72</v>
       </c>
       <c r="M20">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6696,40 +6696,40 @@
         <v>132</v>
       </c>
       <c r="B21">
-        <v>5964</v>
+        <v>5711</v>
       </c>
       <c r="C21">
-        <v>2894</v>
+        <v>2791</v>
       </c>
       <c r="D21">
-        <v>3070</v>
+        <v>2920</v>
       </c>
       <c r="E21">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="F21">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G21">
-        <v>1635</v>
+        <v>1572</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I21">
-        <v>1988</v>
+        <v>1880</v>
       </c>
       <c r="J21">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K21">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L21">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6737,40 +6737,40 @@
         <v>133</v>
       </c>
       <c r="B22">
-        <v>3403</v>
+        <v>3290</v>
       </c>
       <c r="C22">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="D22">
-        <v>2319</v>
+        <v>2241</v>
       </c>
       <c r="E22">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="H22">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I22">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="J22">
         <v>36</v>
       </c>
       <c r="K22">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L22">
-        <v>1597</v>
+        <v>1550</v>
       </c>
       <c r="M22">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6778,22 +6778,22 @@
         <v>134</v>
       </c>
       <c r="B23">
-        <v>3288</v>
+        <v>3169</v>
       </c>
       <c r="C23">
-        <v>1427</v>
+        <v>1370</v>
       </c>
       <c r="D23">
-        <v>1861</v>
+        <v>1799</v>
       </c>
       <c r="E23">
-        <v>1166</v>
+        <v>1116</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H23">
         <v>89</v>
@@ -6802,16 +6802,16 @@
         <v>100</v>
       </c>
       <c r="J23">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K23">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L23">
-        <v>1008</v>
+        <v>969</v>
       </c>
       <c r="M23">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6819,34 +6819,34 @@
         <v>135</v>
       </c>
       <c r="B24">
-        <v>2799</v>
+        <v>2717</v>
       </c>
       <c r="C24">
-        <v>2266</v>
+        <v>2205</v>
       </c>
       <c r="D24">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="E24">
-        <v>2002</v>
+        <v>1945</v>
       </c>
       <c r="F24">
         <v>51</v>
       </c>
       <c r="G24">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6860,25 +6860,25 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>2711</v>
+        <v>2627</v>
       </c>
       <c r="C25">
-        <v>2556</v>
+        <v>2477</v>
       </c>
       <c r="D25">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E25">
         <v>62</v>
       </c>
       <c r="F25">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2281</v>
+        <v>2209</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -6890,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6901,40 +6901,40 @@
         <v>136</v>
       </c>
       <c r="B26">
-        <v>2555</v>
+        <v>2295</v>
       </c>
       <c r="C26">
-        <v>918</v>
+        <v>1393</v>
       </c>
       <c r="D26">
-        <v>1637</v>
+        <v>902</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="F26">
-        <v>711</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="H26">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I26">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="J26">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>263</v>
+        <v>398</v>
       </c>
       <c r="L26">
-        <v>1190</v>
+        <v>165</v>
       </c>
       <c r="M26">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6942,163 +6942,163 @@
         <v>137</v>
       </c>
       <c r="B27">
-        <v>2391</v>
+        <v>2287</v>
       </c>
       <c r="C27">
-        <v>1448</v>
+        <v>2263</v>
       </c>
       <c r="D27">
-        <v>943</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>1104</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>2040</v>
       </c>
       <c r="G27">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="I27">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>2358</v>
+        <v>2152</v>
       </c>
       <c r="C28">
-        <v>2333</v>
+        <v>1991</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E28">
-        <v>65</v>
+        <v>610</v>
       </c>
       <c r="F28">
-        <v>2102</v>
+        <v>89</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>166</v>
+        <v>1283</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>2220</v>
+        <v>2070</v>
       </c>
       <c r="C29">
-        <v>2045</v>
+        <v>1924</v>
       </c>
       <c r="D29">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E29">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1318</v>
+        <v>1924</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K29">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B30">
-        <v>2158</v>
+        <v>2053</v>
       </c>
       <c r="C30">
-        <v>2008</v>
+        <v>463</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>2008</v>
+        <v>190</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J30">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="L30">
-        <v>78</v>
+        <v>1151</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7106,40 +7106,40 @@
         <v>139</v>
       </c>
       <c r="B31">
-        <v>1840</v>
+        <v>1761</v>
       </c>
       <c r="C31">
-        <v>796</v>
+        <v>759</v>
       </c>
       <c r="D31">
-        <v>1044</v>
+        <v>1002</v>
       </c>
       <c r="E31">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F31">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="G31">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J31">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K31">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L31">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M31">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7147,25 +7147,25 @@
         <v>140</v>
       </c>
       <c r="B32">
-        <v>1747</v>
+        <v>1675</v>
       </c>
       <c r="C32">
-        <v>965</v>
+        <v>927</v>
       </c>
       <c r="D32">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>852</v>
+        <v>816</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7174,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L32">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -7188,19 +7188,19 @@
         <v>141</v>
       </c>
       <c r="B33">
-        <v>1495</v>
+        <v>1441</v>
       </c>
       <c r="C33">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D33">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7229,25 +7229,25 @@
         <v>142</v>
       </c>
       <c r="B34">
-        <v>1432</v>
+        <v>1388</v>
       </c>
       <c r="C34">
-        <v>1175</v>
+        <v>1140</v>
       </c>
       <c r="D34">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E34">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F34">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7256,13 +7256,13 @@
         <v>26</v>
       </c>
       <c r="K34">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L34">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7270,10 +7270,10 @@
         <v>143</v>
       </c>
       <c r="B35">
-        <v>1329</v>
+        <v>1289</v>
       </c>
       <c r="C35">
-        <v>1329</v>
+        <v>1289</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1329</v>
+        <v>1289</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7311,13 +7311,13 @@
         <v>144</v>
       </c>
       <c r="B36">
-        <v>1243</v>
+        <v>1207</v>
       </c>
       <c r="C36">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="D36">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -7326,16 +7326,16 @@
         <v>93</v>
       </c>
       <c r="G36">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -7352,10 +7352,10 @@
         <v>145</v>
       </c>
       <c r="B37">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="C37">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7393,25 +7393,25 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="C38">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="D38">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>49</v>
       </c>
       <c r="L38">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M38">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -7434,10 +7434,10 @@
         <v>147</v>
       </c>
       <c r="B39">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="C39">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D39">
         <v>39</v>
@@ -7446,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7475,16 +7475,16 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="C40">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7516,25 +7516,25 @@
         <v>149</v>
       </c>
       <c r="B41">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="C41">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H41">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41">
         <v>40</v>
@@ -7543,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L41">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="M41">
         <v>28</v>
@@ -7557,40 +7557,40 @@
         <v>150</v>
       </c>
       <c r="B42">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="C42">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="D42">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="G42">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I42">
         <v>33</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -7598,13 +7598,13 @@
         <v>151</v>
       </c>
       <c r="B43">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C43">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D43">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -7639,40 +7639,40 @@
         <v>152</v>
       </c>
       <c r="B44">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="C44">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="D44">
-        <v>330</v>
+        <v>576</v>
       </c>
       <c r="E44">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G44">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K44">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -7680,40 +7680,40 @@
         <v>153</v>
       </c>
       <c r="B45">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="C45">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="D45">
-        <v>601</v>
+        <v>321</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L45">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -7721,16 +7721,16 @@
         <v>154</v>
       </c>
       <c r="B46">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C46">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D46">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E46">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L46">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -7762,19 +7762,19 @@
         <v>155</v>
       </c>
       <c r="B47">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="C47">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D47">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E47">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>43</v>
       </c>
       <c r="L47">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -7803,16 +7803,16 @@
         <v>156</v>
       </c>
       <c r="B48">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C48">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7844,10 +7844,10 @@
         <v>157</v>
       </c>
       <c r="B49">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C49">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7885,13 +7885,13 @@
         <v>158</v>
       </c>
       <c r="B50">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="C50">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D50">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -7900,16 +7900,16 @@
         <v>24</v>
       </c>
       <c r="G50">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>38</v>
@@ -7926,28 +7926,28 @@
         <v>159</v>
       </c>
       <c r="B51">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C51">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D51">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="E51">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>153</v>
+      </c>
+      <c r="G51">
         <v>31</v>
       </c>
-      <c r="F51">
-        <v>158</v>
-      </c>
-      <c r="G51">
-        <v>33</v>
-      </c>
       <c r="H51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I51">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -7956,7 +7956,7 @@
         <v>25</v>
       </c>
       <c r="L51">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M51">
         <v>20</v>
@@ -7967,25 +7967,25 @@
         <v>160</v>
       </c>
       <c r="B52">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C52">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F52">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -8008,16 +8008,16 @@
         <v>161</v>
       </c>
       <c r="B53">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C53">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="D53">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -8038,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8049,16 +8049,16 @@
         <v>162</v>
       </c>
       <c r="B54">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C54">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -8079,10 +8079,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8090,13 +8090,13 @@
         <v>163</v>
       </c>
       <c r="B55">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C55">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -8108,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8131,28 +8131,28 @@
         <v>164</v>
       </c>
       <c r="B56">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C56">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H56">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I56">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -8161,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8172,40 +8172,40 @@
         <v>165</v>
       </c>
       <c r="B57">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C57">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8213,28 +8213,28 @@
         <v>166</v>
       </c>
       <c r="B58">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C58">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H58">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I58">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -8254,13 +8254,13 @@
         <v>167</v>
       </c>
       <c r="B59">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -8278,16 +8278,16 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K59">
         <v>22</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M59">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8295,25 +8295,25 @@
         <v>168</v>
       </c>
       <c r="B60">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C60">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="F60">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -8336,25 +8336,25 @@
         <v>169</v>
       </c>
       <c r="B61">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C61">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -8377,28 +8377,28 @@
         <v>170</v>
       </c>
       <c r="B62">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C62">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -8418,13 +8418,13 @@
         <v>171</v>
       </c>
       <c r="B63">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C63">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D63">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>22</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>56</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M63">
         <v>21</v>
@@ -8459,13 +8459,13 @@
         <v>172</v>
       </c>
       <c r="B64">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C64">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D64">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -8474,13 +8474,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -8500,22 +8500,22 @@
         <v>173</v>
       </c>
       <c r="B65">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C65">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F65">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8527,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8541,22 +8541,22 @@
         <v>174</v>
       </c>
       <c r="B66">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D66">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8582,16 +8582,16 @@
         <v>175</v>
       </c>
       <c r="B67">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C67">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -8623,40 +8623,40 @@
         <v>176</v>
       </c>
       <c r="B68">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C68">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D68">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G68">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I68">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -8664,54 +8664,54 @@
         <v>177</v>
       </c>
       <c r="B69">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D69">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H69">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J69">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L69">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B70">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -8732,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="L70">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8743,16 +8743,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -8773,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8787,25 +8787,25 @@
         <v>178</v>
       </c>
       <c r="B72">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D72">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="M72">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -8828,40 +8828,40 @@
         <v>179</v>
       </c>
       <c r="B73">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C73">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <v>40</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>42</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
       <c r="L73">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -8869,16 +8869,16 @@
         <v>180</v>
       </c>
       <c r="B74">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D74">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -8896,13 +8896,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L74">
         <v>29</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -8922,13 +8922,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I75">
         <v>13</v>
@@ -8951,10 +8951,10 @@
         <v>182</v>
       </c>
       <c r="B76">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C76">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -8963,13 +8963,13 @@
         <v>25</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H76">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -8992,13 +8992,13 @@
         <v>183</v>
       </c>
       <c r="B77">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77">
         <v>32</v>
       </c>
       <c r="D77">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9033,10 +9033,10 @@
         <v>184</v>
       </c>
       <c r="B78">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C78">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -9074,13 +9074,13 @@
         <v>185</v>
       </c>
       <c r="B79">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9101,10 +9101,10 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L79">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9115,10 +9115,10 @@
         <v>186</v>
       </c>
       <c r="B80">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -9156,16 +9156,16 @@
         <v>187</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D81">
         <v>27</v>
       </c>
       <c r="E81">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -9197,16 +9197,16 @@
         <v>188</v>
       </c>
       <c r="B82">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -9279,16 +9279,16 @@
         <v>190</v>
       </c>
       <c r="B84">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9361,13 +9361,13 @@
         <v>192</v>
       </c>
       <c r="B86">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -9402,16 +9402,16 @@
         <v>193</v>
       </c>
       <c r="B87">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -9443,13 +9443,13 @@
         <v>194</v>
       </c>
       <c r="B88">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>11</v>
       </c>
       <c r="L88">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9484,10 +9484,10 @@
         <v>195</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>197</v>
       </c>
       <c r="B91">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -9607,16 +9607,16 @@
         <v>198</v>
       </c>
       <c r="B92">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -9651,13 +9651,13 @@
         <v>34</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -9689,10 +9689,10 @@
         <v>200</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9704,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H94">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -9730,10 +9730,10 @@
         <v>201</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -9771,16 +9771,16 @@
         <v>202</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -9812,13 +9812,13 @@
         <v>203</v>
       </c>
       <c r="B97">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C97">
         <v>11</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -9853,10 +9853,10 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9894,13 +9894,13 @@
         <v>205</v>
       </c>
       <c r="B99">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -9976,16 +9976,16 @@
         <v>110</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -10140,19 +10140,19 @@
         <v>210</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10178,22 +10178,22 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10219,16 +10219,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>217</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10601,40 +10601,40 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>609412</v>
+        <v>589269</v>
       </c>
       <c r="C2">
-        <v>383276</v>
+        <v>370147</v>
       </c>
       <c r="D2">
-        <v>226136</v>
+        <v>219122</v>
       </c>
       <c r="E2">
-        <v>97544</v>
+        <v>93986</v>
       </c>
       <c r="F2">
-        <v>109266</v>
+        <v>105252</v>
       </c>
       <c r="G2">
-        <v>87492</v>
+        <v>84653</v>
       </c>
       <c r="H2">
-        <v>88974</v>
+        <v>86256</v>
       </c>
       <c r="I2">
-        <v>85359</v>
+        <v>82511</v>
       </c>
       <c r="J2">
-        <v>18369</v>
+        <v>17783</v>
       </c>
       <c r="K2">
-        <v>42090</v>
+        <v>41141</v>
       </c>
       <c r="L2">
-        <v>57255</v>
+        <v>55366</v>
       </c>
       <c r="M2">
-        <v>23063</v>
+        <v>22321</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10642,40 +10642,40 @@
         <v>218</v>
       </c>
       <c r="B3">
-        <v>279954</v>
+        <v>269567</v>
       </c>
       <c r="C3">
-        <v>141330</v>
+        <v>136186</v>
       </c>
       <c r="D3">
-        <v>138624</v>
+        <v>133381</v>
       </c>
       <c r="E3">
-        <v>8739</v>
+        <v>8410</v>
       </c>
       <c r="F3">
-        <v>118567</v>
+        <v>114211</v>
       </c>
       <c r="G3">
-        <v>1467</v>
+        <v>1436</v>
       </c>
       <c r="H3">
-        <v>12557</v>
+        <v>12129</v>
       </c>
       <c r="I3">
-        <v>1225</v>
+        <v>1181</v>
       </c>
       <c r="J3">
-        <v>16079</v>
+        <v>15491</v>
       </c>
       <c r="K3">
-        <v>72259</v>
+        <v>69504</v>
       </c>
       <c r="L3">
-        <v>5818</v>
+        <v>5605</v>
       </c>
       <c r="M3">
-        <v>43243</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10683,40 +10683,40 @@
         <v>219</v>
       </c>
       <c r="B4">
-        <v>55419</v>
+        <v>53736</v>
       </c>
       <c r="C4">
-        <v>49444</v>
+        <v>47957</v>
       </c>
       <c r="D4">
-        <v>5975</v>
+        <v>5779</v>
       </c>
       <c r="E4">
-        <v>3853</v>
+        <v>3746</v>
       </c>
       <c r="F4">
-        <v>39391</v>
+        <v>38207</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6200</v>
+        <v>6004</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="K4">
-        <v>3437</v>
+        <v>3323</v>
       </c>
       <c r="L4">
-        <v>878</v>
+        <v>847</v>
       </c>
       <c r="M4">
-        <v>983</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10724,40 +10724,40 @@
         <v>220</v>
       </c>
       <c r="B5">
-        <v>54900</v>
+        <v>53164</v>
       </c>
       <c r="C5">
-        <v>41524</v>
+        <v>40210</v>
       </c>
       <c r="D5">
-        <v>13376</v>
+        <v>12954</v>
       </c>
       <c r="E5">
-        <v>1765</v>
+        <v>1713</v>
       </c>
       <c r="F5">
-        <v>30382</v>
+        <v>29395</v>
       </c>
       <c r="G5">
-        <v>5469</v>
+        <v>5313</v>
       </c>
       <c r="H5">
-        <v>3908</v>
+        <v>3789</v>
       </c>
       <c r="I5">
-        <v>6107</v>
+        <v>5919</v>
       </c>
       <c r="J5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K5">
-        <v>6460</v>
+        <v>6254</v>
       </c>
       <c r="L5">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="M5">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10765,40 +10765,40 @@
         <v>221</v>
       </c>
       <c r="B6">
-        <v>23171</v>
+        <v>22301</v>
       </c>
       <c r="C6">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="D6">
-        <v>22289</v>
+        <v>21452</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7413</v>
+        <v>7109</v>
       </c>
       <c r="K6">
-        <v>1591</v>
+        <v>1537</v>
       </c>
       <c r="L6">
-        <v>8953</v>
+        <v>8636</v>
       </c>
       <c r="M6">
-        <v>4332</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10806,40 +10806,40 @@
         <v>222</v>
       </c>
       <c r="B7">
-        <v>17766</v>
+        <v>17153</v>
       </c>
       <c r="C7">
-        <v>11283</v>
+        <v>10906</v>
       </c>
       <c r="D7">
-        <v>6483</v>
+        <v>6247</v>
       </c>
       <c r="E7">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F7">
-        <v>7096</v>
+        <v>6851</v>
       </c>
       <c r="G7">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H7">
-        <v>3307</v>
+        <v>3203</v>
       </c>
       <c r="I7">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="J7">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K7">
-        <v>1168</v>
+        <v>1115</v>
       </c>
       <c r="L7">
-        <v>4185</v>
+        <v>4040</v>
       </c>
       <c r="M7">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10847,40 +10847,40 @@
         <v>223</v>
       </c>
       <c r="B8">
-        <v>3832</v>
+        <v>3684</v>
       </c>
       <c r="C8">
-        <v>2874</v>
+        <v>2780</v>
       </c>
       <c r="D8">
-        <v>958</v>
+        <v>904</v>
       </c>
       <c r="E8">
-        <v>2367</v>
+        <v>2290</v>
       </c>
       <c r="F8">
         <v>24</v>
       </c>
       <c r="G8">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>38</v>
       </c>
       <c r="L8">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="M8">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10888,10 +10888,10 @@
         <v>224</v>
       </c>
       <c r="B9">
-        <v>2020</v>
+        <v>1956</v>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>1956</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10900,13 +10900,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1831</v>
+        <v>1777</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -10929,40 +10929,40 @@
         <v>225</v>
       </c>
       <c r="B10">
-        <v>1972</v>
+        <v>1914</v>
       </c>
       <c r="C10">
-        <v>1556</v>
+        <v>1507</v>
       </c>
       <c r="D10">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1270</v>
+        <v>1225</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10970,13 +10970,13 @@
         <v>226</v>
       </c>
       <c r="B11">
-        <v>1635</v>
+        <v>1586</v>
       </c>
       <c r="C11">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D11">
-        <v>1438</v>
+        <v>1396</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -11000,10 +11000,10 @@
         <v>98</v>
       </c>
       <c r="L11">
-        <v>1172</v>
+        <v>1133</v>
       </c>
       <c r="M11">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11011,19 +11011,19 @@
         <v>227</v>
       </c>
       <c r="B12">
-        <v>1495</v>
+        <v>1441</v>
       </c>
       <c r="C12">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D12">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -11052,16 +11052,16 @@
         <v>228</v>
       </c>
       <c r="B13">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="C13">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E13">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11070,19 +11070,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11093,16 +11093,16 @@
         <v>229</v>
       </c>
       <c r="B14">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C14">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11134,13 +11134,13 @@
         <v>230</v>
       </c>
       <c r="B15">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -11175,10 +11175,10 @@
         <v>231</v>
       </c>
       <c r="B16">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C16">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -11216,25 +11216,25 @@
         <v>232</v>
       </c>
       <c r="B17">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C17">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -11257,10 +11257,10 @@
         <v>233</v>
       </c>
       <c r="B18">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C18">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -11298,10 +11298,10 @@
         <v>234</v>
       </c>
       <c r="B19">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C19">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -11339,13 +11339,13 @@
         <v>235</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11380,34 +11380,34 @@
         <v>236</v>
       </c>
       <c r="B21">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>11</v>
       </c>
-      <c r="D21">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>14</v>
-      </c>
       <c r="K21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -11421,10 +11421,10 @@
         <v>237</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -11462,13 +11462,13 @@
         <v>238</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>11</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -11503,10 +11503,10 @@
         <v>239</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -11544,13 +11544,13 @@
         <v>240</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25">
         <v>0</v>
